--- a/output/table2_all.xlsx
+++ b/output/table2_all.xlsx
@@ -460,18 +460,14 @@
       <c r="B2" t="n">
         <v>342519</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>99.61%</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.9960943634364948</v>
       </c>
       <c r="D2" t="n">
         <v>344036</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.58%</t>
-        </is>
+      <c r="E2" t="n">
+        <v>0.9957972491085074</v>
       </c>
     </row>
     <row r="3">
@@ -483,18 +479,14 @@
       <c r="B3" t="n">
         <v>724</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>0.21%</t>
-        </is>
+      <c r="C3" t="n">
+        <v>0.002105495809365385</v>
       </c>
       <c r="D3" t="n">
         <v>783</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0.23%</t>
-        </is>
+      <c r="E3" t="n">
+        <v>0.002266359468346223</v>
       </c>
     </row>
     <row r="4">
@@ -506,18 +498,14 @@
       <c r="B4" t="n">
         <v>619</v>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.18%</t>
-        </is>
+      <c r="C4" t="n">
+        <v>0.001800140754139742</v>
       </c>
       <c r="D4" t="n">
         <v>669</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>0.19%</t>
-        </is>
+      <c r="E4" t="n">
+        <v>0.00193639142314639</v>
       </c>
     </row>
   </sheetData>
